--- a/data_mining/car_brands_and_models_links_BMW.xlsx
+++ b/data_mining/car_brands_and_models_links_BMW.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7l49&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poth5q&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7l9o&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poth8q&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7lei&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothce&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7lk8&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothgr&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7lps&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothle&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7lv9&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potho4&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7m0r&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothr7&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7m6w&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothu1&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7mbb&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothwr&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7mfd&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poti01&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7mkc&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poti34&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7mov&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poti6p&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7mu7&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poti9t&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7n00&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potidh&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7n5v&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potigq&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7nbh&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potik8&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7ng2&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potimz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7nke&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potiry&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7np0&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potium&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7nty&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potixe&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7nyx&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potj13&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7o3t&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potj4o&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7o9r&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potj8k&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7ofg&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjbx&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7olr&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjfh&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7oqu&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjin&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7ovm&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjlp&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7p0x&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjo3&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7p5c&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjr6&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7pa6&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjun&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7pgj&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjyj&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7pmc&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potk2k&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7prh&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potk70&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pb7px2&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potkac&amp;f1=1</t>
         </is>
       </c>
     </row>

--- a/data_mining/car_brands_and_models_links_BMW.xlsx
+++ b/data_mining/car_brands_and_models_links_BMW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poth5q&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9u09&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poth8q&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9u6l&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothce&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9ud6&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothgr&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9ujz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothle&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9uqz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potho4&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9uw5&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothr7&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9v13&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothu1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9v63&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pothwr&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9v9s&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poti01&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9vdt&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poti34&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9vj8&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poti6p&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9vol&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poti9t&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9vtx&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potidh&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9vyf&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potigq&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9w51&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -766,367 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potik8&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>M8</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potimz&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>X1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potiry&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>X2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potium&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>X3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potixe&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>X4</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potj13&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>X5</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potj4o&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>X5M</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potj8k&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>X6</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjbx&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>X7</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjfh&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Z1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjin&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Z3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjlp&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Z4</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjo3&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Z8</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjr6&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjun&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potjyj&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potk2k&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>iX</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potk70&amp;f1=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>iX3</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potkac&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=qb9w90&amp;f1=1</t>
         </is>
       </c>
     </row>
